--- a/raw_data/20200818_saline/20200818_Sensor1_Test_94.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_94.xlsx
@@ -1,583 +1,999 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606351B-8DE7-4B85-B358-E71200636F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>83888.148561</v>
+        <v>83888.148560999995</v>
       </c>
       <c r="B2" s="1">
         <v>23.302263</v>
       </c>
       <c r="C2" s="1">
-        <v>909.578000</v>
+        <v>909.57799999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-201.857000</v>
+        <v>-201.857</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>83898.565997</v>
+        <v>83898.565996999998</v>
       </c>
       <c r="G2" s="1">
-        <v>23.305157</v>
+        <v>23.305157000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>927.023000</v>
+        <v>927.02300000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.901000</v>
+        <v>-170.90100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>83909.083168</v>
+        <v>83909.083167999997</v>
       </c>
       <c r="L2" s="1">
-        <v>23.308079</v>
+        <v>23.308078999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>950.687000</v>
+        <v>950.68700000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.513000</v>
+        <v>-121.51300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>83920.285313</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.311190</v>
+        <v>23.31119</v>
       </c>
       <c r="R2" s="1">
-        <v>957.572000</v>
+        <v>957.572</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.113000</v>
+        <v>-105.113</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>83930.852082</v>
+        <v>83930.852081999998</v>
       </c>
       <c r="V2" s="1">
-        <v>23.314126</v>
+        <v>23.314126000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>964.549000</v>
+        <v>964.54899999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.869700</v>
+        <v>-89.869699999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>83940.738342</v>
+        <v>83940.738341999997</v>
       </c>
       <c r="AA2" s="1">
         <v>23.316872</v>
       </c>
       <c r="AB2" s="1">
-        <v>971.724000</v>
+        <v>971.72400000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.870600</v>
+        <v>-77.870599999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>83951.035784</v>
+        <v>83951.035784000007</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.319732</v>
+        <v>23.319731999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>976.571000</v>
+        <v>976.57100000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.399000</v>
+        <v>-75.399000000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>83961.477562</v>
@@ -586,151 +1002,151 @@
         <v>23.322633</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.899000</v>
+        <v>983.899</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.897500</v>
+        <v>-79.897499999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83972.039870</v>
+        <v>83972.039869999993</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.325567</v>
+        <v>23.325566999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.019000</v>
+        <v>992.01900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.056600</v>
+        <v>-91.056600000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>83982.636894</v>
+        <v>83982.636893999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.328510</v>
+        <v>23.328510000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.850000</v>
+        <v>1001.85</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.408000</v>
+        <v>-108.408</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>83994.000735</v>
+        <v>83994.000734999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.331667</v>
+        <v>23.331666999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>84004.926115</v>
+        <v>84004.926114999995</v>
       </c>
       <c r="BE2" s="1">
         <v>23.334702</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.129000</v>
+        <v>-195.12899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>84015.946723</v>
+        <v>84015.946723000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.337763</v>
+        <v>23.337762999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.205000</v>
+        <v>-310.20499999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>84027.325972</v>
+        <v>84027.325972000006</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.340924</v>
+        <v>23.340924000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.229000</v>
+        <v>-490.22899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>84039.686282</v>
+        <v>84039.686281999995</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.344357</v>
+        <v>23.344356999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1345.490000</v>
+        <v>1345.49</v>
       </c>
       <c r="BV2" s="1">
-        <v>-686.613000</v>
+        <v>-686.61300000000006</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>84051.241571</v>
+        <v>84051.241571000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.347567</v>
+        <v>23.347567000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1480.610000</v>
+        <v>1480.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-894.976000</v>
+        <v>-894.976</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>84062.163973</v>
+        <v>84062.163973000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.350601</v>
+        <v>23.350601000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.210000</v>
+        <v>1829.21</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1388.880000</v>
+        <v>-1388.88</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>83888.508124</v>
       </c>
@@ -738,300 +1154,300 @@
         <v>23.302363</v>
       </c>
       <c r="C3" s="1">
-        <v>908.970000</v>
+        <v>908.97</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.340000</v>
+        <v>-202.34</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>83899.285694</v>
+        <v>83899.285694000006</v>
       </c>
       <c r="G3" s="1">
-        <v>23.305357</v>
+        <v>23.305357000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>927.110000</v>
+        <v>927.11</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.026000</v>
+        <v>-171.02600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>83909.780088</v>
       </c>
       <c r="L3" s="1">
-        <v>23.308272</v>
+        <v>23.308271999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>950.633000</v>
+        <v>950.63300000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.572000</v>
+        <v>-121.572</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>83920.660823</v>
+        <v>83920.660822999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.311295</v>
+        <v>23.311295000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>957.571000</v>
+        <v>957.57100000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.098000</v>
+        <v>-105.098</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>83931.249378</v>
+        <v>83931.249377999993</v>
       </c>
       <c r="V3" s="1">
-        <v>23.314236</v>
+        <v>23.314236000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>964.250000</v>
+        <v>964.25</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.880000</v>
+        <v>-89.88</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>83941.090501</v>
+        <v>83941.090500999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.316970</v>
+        <v>23.316970000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>971.712000</v>
+        <v>971.71199999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.935200</v>
+        <v>-77.935199999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>83951.387448</v>
+        <v>83951.387447999994</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.319830</v>
+        <v>23.31983</v>
       </c>
       <c r="AG3" s="1">
-        <v>976.591000</v>
+        <v>976.59100000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.424300</v>
+        <v>-75.424300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>83962.077722</v>
+        <v>83962.077722000002</v>
       </c>
       <c r="AK3" s="1">
         <v>23.322799</v>
       </c>
       <c r="AL3" s="1">
-        <v>983.915000</v>
+        <v>983.91499999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.810600</v>
+        <v>-79.810599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83972.602332</v>
+        <v>83972.602331999995</v>
       </c>
       <c r="AP3" s="1">
         <v>23.325723</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.030000</v>
+        <v>992.03</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.063600</v>
+        <v>-91.063599999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>83983.076384</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.328632</v>
+        <v>23.328631999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.413000</v>
+        <v>-108.413</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>83994.399024</v>
+        <v>83994.399023999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.331778</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.080000</v>
+        <v>1010.08</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>84005.334856</v>
+        <v>84005.334856000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.334815</v>
+        <v>23.334814999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.120000</v>
+        <v>-195.12</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>84016.328642</v>
+        <v>84016.328641999993</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.337869</v>
+        <v>23.337869000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.219000</v>
+        <v>-310.21899999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>84027.772340</v>
+        <v>84027.772339999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.341048</v>
+        <v>23.341048000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.279000</v>
+        <v>-490.279</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>84040.113794</v>
+        <v>84040.113794000004</v>
       </c>
       <c r="BT3" s="1">
         <v>23.344476</v>
       </c>
       <c r="BU3" s="1">
-        <v>1345.460000</v>
+        <v>1345.46</v>
       </c>
       <c r="BV3" s="1">
-        <v>-686.567000</v>
+        <v>-686.56700000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>84051.705299</v>
+        <v>84051.705298999994</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.347696</v>
+        <v>23.347695999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1480.500000</v>
+        <v>1480.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-895.000000</v>
+        <v>-895</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>84062.740327</v>
+        <v>84062.740327000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.350761</v>
+        <v>23.350760999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.470000</v>
+        <v>1830.47</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1389.580000</v>
+        <v>-1389.58</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>83889.180202</v>
+        <v>83889.180202000003</v>
       </c>
       <c r="B4" s="1">
-        <v>23.302550</v>
+        <v>23.30255</v>
       </c>
       <c r="C4" s="1">
-        <v>908.792000</v>
+        <v>908.79200000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.248000</v>
+        <v>-202.24799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>83899.637868</v>
+        <v>83899.637868000005</v>
       </c>
       <c r="G4" s="1">
-        <v>23.305455</v>
+        <v>23.305454999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>926.918000</v>
+        <v>926.91800000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.132000</v>
+        <v>-171.13200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>83910.145102</v>
+        <v>83910.145101999995</v>
       </c>
       <c r="L4" s="1">
-        <v>23.308374</v>
+        <v>23.308374000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>950.701000</v>
+        <v>950.70100000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.690000</v>
+        <v>-121.69</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>83921.008017</v>
@@ -1040,814 +1456,814 @@
         <v>23.311391</v>
       </c>
       <c r="R4" s="1">
-        <v>957.557000</v>
+        <v>957.55700000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.119000</v>
+        <v>-105.119</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>83931.594098</v>
+        <v>83931.594098000001</v>
       </c>
       <c r="V4" s="1">
         <v>23.314332</v>
       </c>
       <c r="W4" s="1">
-        <v>964.395000</v>
+        <v>964.39499999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.810300</v>
+        <v>-89.810299999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>83941.438694</v>
+        <v>83941.438693999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.317066</v>
+        <v>23.317066000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>971.699000</v>
+        <v>971.69899999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.923200</v>
+        <v>-77.923199999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>83951.726712</v>
+        <v>83951.726712000003</v>
       </c>
       <c r="AF4" s="1">
         <v>23.319924</v>
       </c>
       <c r="AG4" s="1">
-        <v>976.602000</v>
+        <v>976.60199999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.491600</v>
+        <v>-75.491600000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>83962.529577</v>
+        <v>83962.529576999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.322925</v>
+        <v>23.322925000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>983.899000</v>
+        <v>983.899</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.775200</v>
+        <v>-79.775199999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>83972.763035</v>
+        <v>83972.763034999996</v>
       </c>
       <c r="AP4" s="1">
         <v>23.325768</v>
       </c>
       <c r="AQ4" s="1">
-        <v>992.014000</v>
+        <v>992.01400000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.053600</v>
+        <v>-91.053600000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>83983.383871</v>
+        <v>83983.383870999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.328718</v>
+        <v>23.328717999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.423000</v>
+        <v>-108.423</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>83994.758654</v>
+        <v>83994.758654000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.331877</v>
+        <v>23.331876999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>84005.695943</v>
+        <v>84005.695942999999</v>
       </c>
       <c r="BE4" s="1">
         <v>23.334916</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.132000</v>
+        <v>-195.13200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>84016.703122</v>
+        <v>84016.703122000006</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.337973</v>
+        <v>23.337973000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1115.750000</v>
+        <v>1115.75</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.226000</v>
+        <v>-310.226</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>84028.577365</v>
+        <v>84028.577365000005</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.341271</v>
+        <v>23.341270999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1224.280000</v>
+        <v>1224.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.287000</v>
+        <v>-490.28699999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>84040.544817</v>
+        <v>84040.544817000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.344596</v>
+        <v>23.344595999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1345.410000</v>
+        <v>1345.41</v>
       </c>
       <c r="BV4" s="1">
-        <v>-686.654000</v>
+        <v>-686.654</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>84052.149714</v>
+        <v>84052.149713999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.347819</v>
+        <v>23.347819000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1480.560000</v>
+        <v>1480.56</v>
       </c>
       <c r="CA4" s="1">
-        <v>-895.072000</v>
+        <v>-895.072</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>84063.226372</v>
+        <v>84063.226372000005</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.350896</v>
+        <v>23.350895999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.090000</v>
+        <v>1831.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1388.550000</v>
+        <v>-1388.55</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>83889.535834</v>
+        <v>83889.535833999995</v>
       </c>
       <c r="B5" s="1">
-        <v>23.302649</v>
+        <v>23.302648999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>909.197000</v>
+        <v>909.197</v>
       </c>
       <c r="D5" s="1">
-        <v>-201.666000</v>
+        <v>-201.666</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>83899.991502</v>
+        <v>83899.991502000004</v>
       </c>
       <c r="G5" s="1">
         <v>23.305553</v>
       </c>
       <c r="H5" s="1">
-        <v>927.136000</v>
+        <v>927.13599999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.883000</v>
+        <v>-170.88300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>83910.491806</v>
+        <v>83910.491806000005</v>
       </c>
       <c r="L5" s="1">
-        <v>23.308470</v>
+        <v>23.30847</v>
       </c>
       <c r="M5" s="1">
-        <v>950.551000</v>
+        <v>950.55100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.691000</v>
+        <v>-121.691</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>83921.364608</v>
+        <v>83921.364608000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.311490</v>
+        <v>23.311489999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>957.564000</v>
+        <v>957.56399999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.127000</v>
+        <v>-105.127</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>83931.937825</v>
+        <v>83931.937825000001</v>
       </c>
       <c r="V5" s="1">
-        <v>23.314427</v>
+        <v>23.314426999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>964.315000</v>
+        <v>964.31500000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.821100</v>
+        <v>-89.821100000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>83941.871700</v>
+        <v>83941.871700000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.317187</v>
+        <v>23.317187000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>971.686000</v>
+        <v>971.68600000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.866500</v>
+        <v>-77.866500000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>83952.164183</v>
+        <v>83952.164183000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.320046</v>
+        <v>23.320046000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>976.593000</v>
+        <v>976.59299999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.478700</v>
+        <v>-75.478700000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>83962.793449</v>
+        <v>83962.793449000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.322998</v>
+        <v>23.322997999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>983.903000</v>
+        <v>983.90300000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.796100</v>
+        <v>-79.796099999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>83973.122635</v>
+        <v>83973.122635000007</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.325867</v>
+        <v>23.325866999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>992.019000</v>
+        <v>992.01900000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.060900</v>
+        <v>-91.060900000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83983.755868</v>
+        <v>83983.755867999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.328821</v>
+        <v>23.328821000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>83995.117726</v>
+        <v>83995.117725999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.331977</v>
+        <v>23.331976999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>84006.059471</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.335017</v>
+        <v>23.335017000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.129000</v>
+        <v>-195.12899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>84017.455056</v>
+        <v>84017.455056000006</v>
       </c>
       <c r="BJ5" s="1">
         <v>23.338182</v>
       </c>
       <c r="BK5" s="1">
-        <v>1115.730000</v>
+        <v>1115.73</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.222000</v>
+        <v>-310.22199999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>84028.991009</v>
+        <v>84028.991009000005</v>
       </c>
       <c r="BO5" s="1">
         <v>23.341386</v>
       </c>
       <c r="BP5" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.298000</v>
+        <v>-490.298</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>84040.964435</v>
+        <v>84040.964435000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.344712</v>
+        <v>23.344712000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1345.430000</v>
+        <v>1345.43</v>
       </c>
       <c r="BV5" s="1">
-        <v>-686.753000</v>
+        <v>-686.75300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>84052.583714</v>
+        <v>84052.583713999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.347940</v>
+        <v>23.347940000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1480.520000</v>
+        <v>1480.52</v>
       </c>
       <c r="CA5" s="1">
-        <v>-895.052000</v>
+        <v>-895.05200000000002</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>84064.074531</v>
+        <v>84064.074531000006</v>
       </c>
       <c r="CD5" s="1">
         <v>23.351132</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.630000</v>
+        <v>1829.63</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1388.400000</v>
+        <v>-1388.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>83889.876090</v>
+        <v>83889.876090000005</v>
       </c>
       <c r="B6" s="1">
         <v>23.302743</v>
       </c>
       <c r="C6" s="1">
-        <v>909.700000</v>
+        <v>909.7</v>
       </c>
       <c r="D6" s="1">
-        <v>-201.622000</v>
+        <v>-201.62200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>83900.333280</v>
+        <v>83900.333280000006</v>
       </c>
       <c r="G6" s="1">
-        <v>23.305648</v>
+        <v>23.305648000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>927.094000</v>
+        <v>927.09400000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.068000</v>
+        <v>-171.06800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>83910.837021</v>
+        <v>83910.837020999999</v>
       </c>
       <c r="L6" s="1">
-        <v>23.308566</v>
+        <v>23.308565999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>950.687000</v>
+        <v>950.68700000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.642000</v>
+        <v>-121.642</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>83921.813982</v>
+        <v>83921.813982000007</v>
       </c>
       <c r="Q6" s="1">
         <v>23.311615</v>
       </c>
       <c r="R6" s="1">
-        <v>957.563000</v>
+        <v>957.56299999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.151000</v>
+        <v>-105.151</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>83932.359921</v>
+        <v>83932.359920999996</v>
       </c>
       <c r="V6" s="1">
-        <v>23.314544</v>
+        <v>23.314544000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>964.448000</v>
+        <v>964.44799999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.826700</v>
+        <v>-89.826700000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>83942.149461</v>
+        <v>83942.149460999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.317264</v>
+        <v>23.317264000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>971.689000</v>
+        <v>971.68899999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.985600</v>
+        <v>-77.985600000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>83952.436486</v>
+        <v>83952.436486000006</v>
       </c>
       <c r="AF6" s="1">
         <v>23.320121</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.580000</v>
+        <v>976.58</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.472900</v>
+        <v>-75.472899999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>83963.139688</v>
+        <v>83963.139687999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.323094</v>
+        <v>23.323094000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>983.892000</v>
+        <v>983.89200000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.780300</v>
+        <v>-79.780299999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>83973.482732</v>
+        <v>83973.482732000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.325967</v>
+        <v>23.325966999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>992.024000</v>
+        <v>992.024</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.070400</v>
+        <v>-91.070400000000006</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>83984.111998</v>
+        <v>83984.111997999993</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.328920</v>
+        <v>23.32892</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.436000</v>
+        <v>-108.43600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>83995.835933</v>
+        <v>83995.835932999995</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.332177</v>
+        <v>23.332177000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>84006.782640</v>
+        <v>84006.782640000005</v>
       </c>
       <c r="BE6" s="1">
         <v>23.335217</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.140000</v>
+        <v>-195.14</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>84017.830032</v>
+        <v>84017.830031999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>23.338286</v>
       </c>
       <c r="BK6" s="1">
-        <v>1115.720000</v>
+        <v>1115.72</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.261000</v>
+        <v>-310.26100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>84029.392272</v>
+        <v>84029.392271999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.341498</v>
+        <v>23.341498000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.293000</v>
+        <v>-490.29300000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>84041.391531</v>
+        <v>84041.391531000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.344831</v>
+        <v>23.344830999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1345.560000</v>
+        <v>1345.56</v>
       </c>
       <c r="BV6" s="1">
-        <v>-686.803000</v>
+        <v>-686.803</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>84053.324280</v>
+        <v>84053.324280000001</v>
       </c>
       <c r="BY6" s="1">
         <v>23.348146</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1480.590000</v>
+        <v>1480.59</v>
       </c>
       <c r="CA6" s="1">
-        <v>-895.090000</v>
+        <v>-895.09</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>84064.271442</v>
+        <v>84064.271441999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.351187</v>
+        <v>23.351186999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.990000</v>
+        <v>1829.99</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1388.190000</v>
+        <v>-1388.19</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>83890.220809</v>
+        <v>83890.220809000006</v>
       </c>
       <c r="B7" s="1">
-        <v>23.302839</v>
+        <v>23.302838999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>909.124000</v>
+        <v>909.12400000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-201.939000</v>
+        <v>-201.93899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83900.758315</v>
+        <v>83900.758314999999</v>
       </c>
       <c r="G7" s="1">
-        <v>23.305766</v>
+        <v>23.305765999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>927.043000</v>
+        <v>927.04300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.052000</v>
+        <v>-171.05199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>83911.300780</v>
+        <v>83911.300780000005</v>
       </c>
       <c r="L7" s="1">
         <v>23.308695</v>
       </c>
       <c r="M7" s="1">
-        <v>950.635000</v>
+        <v>950.63499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.700000</v>
+        <v>-121.7</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>83922.069461</v>
+        <v>83922.069461000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.311686</v>
+        <v>23.311686000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>957.554000</v>
+        <v>957.55399999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.159000</v>
+        <v>-105.15900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>83932.633713</v>
+        <v>83932.633713000003</v>
       </c>
       <c r="V7" s="1">
-        <v>23.314620</v>
+        <v>23.314620000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>964.375000</v>
+        <v>964.375</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.790100</v>
+        <v>-89.790099999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>83942.496202</v>
+        <v>83942.496201999995</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.317360</v>
+        <v>23.317360000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>971.757000</v>
+        <v>971.75699999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.895500</v>
+        <v>-77.895499999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>83952.781208</v>
@@ -1856,166 +2272,166 @@
         <v>23.320217</v>
       </c>
       <c r="AG7" s="1">
-        <v>976.587000</v>
+        <v>976.58699999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.439900</v>
+        <v>-75.439899999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>83963.498264</v>
+        <v>83963.498263999994</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.323194</v>
+        <v>23.323194000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>983.889000</v>
+        <v>983.88900000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.807800</v>
+        <v>-79.8078</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>83974.204906</v>
+        <v>83974.204905999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.326168</v>
+        <v>23.326167999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.021000</v>
+        <v>992.02099999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.068500</v>
+        <v>-91.0685</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>83984.846075</v>
+        <v>83984.846074999994</v>
       </c>
       <c r="AU7" s="1">
         <v>23.329124</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>83996.194542</v>
+        <v>83996.194541999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>23.332276</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.893000</v>
+        <v>-123.893</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>84007.164096</v>
+        <v>84007.164095999993</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.335323</v>
+        <v>23.335322999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.128000</v>
+        <v>-195.12799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>84018.206495</v>
+        <v>84018.206495000006</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.338391</v>
+        <v>23.338391000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1115.710000</v>
+        <v>1115.71</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.201000</v>
+        <v>-310.20100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>84030.128335</v>
+        <v>84030.128335000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.341702</v>
+        <v>23.341702000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.310000</v>
+        <v>-490.31</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>84042.124080</v>
+        <v>84042.124079999994</v>
       </c>
       <c r="BT7" s="1">
-        <v>23.345034</v>
+        <v>23.345033999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1345.550000</v>
+        <v>1345.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-686.767000</v>
+        <v>-686.76700000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>84053.456177</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.348182</v>
+        <v>23.348182000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1480.490000</v>
+        <v>1480.49</v>
       </c>
       <c r="CA7" s="1">
-        <v>-895.134000</v>
+        <v>-895.13400000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>84064.795218</v>
+        <v>84064.795217999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.351332</v>
+        <v>23.351331999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.420000</v>
+        <v>1830.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1387.890000</v>
+        <v>-1387.89</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>83890.674648</v>
       </c>
@@ -2023,527 +2439,527 @@
         <v>23.302965</v>
       </c>
       <c r="C8" s="1">
-        <v>909.063000</v>
+        <v>909.06299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-201.817000</v>
+        <v>-201.81700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>83901.028138</v>
+        <v>83901.028137999994</v>
       </c>
       <c r="G8" s="1">
-        <v>23.305841</v>
+        <v>23.305841000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>926.897000</v>
+        <v>926.89700000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.171000</v>
+        <v>-171.17099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>83911.534893</v>
+        <v>83911.534893000004</v>
       </c>
       <c r="L8" s="1">
-        <v>23.308760</v>
+        <v>23.308759999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>950.742000</v>
+        <v>950.74199999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.502000</v>
+        <v>-121.502</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>83922.414143</v>
+        <v>83922.414143000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.311782</v>
+        <v>23.311782000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>957.555000</v>
+        <v>957.55499999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.122000</v>
+        <v>-105.122</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>83932.975952</v>
+        <v>83932.975951999993</v>
       </c>
       <c r="V8" s="1">
-        <v>23.314716</v>
+        <v>23.314716000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>964.308000</v>
+        <v>964.30799999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.759300</v>
+        <v>-89.759299999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>83942.846837</v>
+        <v>83942.846837000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.317457</v>
+        <v>23.317457000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>971.690000</v>
+        <v>971.69</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.918200</v>
+        <v>-77.918199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>83953.821851</v>
+        <v>83953.821851000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.320506</v>
+        <v>23.320506000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>976.570000</v>
+        <v>976.57</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.484500</v>
+        <v>-75.484499999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>83964.190681</v>
+        <v>83964.190680999993</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.323386</v>
+        <v>23.323385999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>983.916000</v>
+        <v>983.91600000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.825800</v>
+        <v>-79.825800000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83974.589803</v>
+        <v>83974.589802999995</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.326275</v>
+        <v>23.326274999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.012000</v>
+        <v>992.01199999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.062400</v>
+        <v>-91.062399999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>83985.225515</v>
+        <v>83985.225514999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.329229</v>
+        <v>23.329229000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.424000</v>
+        <v>-108.42400000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>83996.554637</v>
+        <v>83996.554636999994</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.332376</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.897000</v>
+        <v>-123.89700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>84007.540030</v>
+        <v>84007.540030000004</v>
       </c>
       <c r="BE8" s="1">
         <v>23.335428</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>84018.908922</v>
+        <v>84018.908922000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.338586</v>
+        <v>23.338585999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1115.720000</v>
+        <v>1115.72</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.253000</v>
+        <v>-310.25299999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>84030.629296</v>
+        <v>84030.629295999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.341841</v>
+        <v>23.341840999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.323000</v>
+        <v>-490.32299999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>84042.234689</v>
+        <v>84042.234689000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.345065</v>
+        <v>23.345065000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1345.470000</v>
+        <v>1345.47</v>
       </c>
       <c r="BV8" s="1">
-        <v>-686.849000</v>
+        <v>-686.84900000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>84053.881744</v>
+        <v>84053.881743999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.348300</v>
+        <v>23.348299999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1480.590000</v>
+        <v>1480.59</v>
       </c>
       <c r="CA8" s="1">
-        <v>-895.171000</v>
+        <v>-895.17100000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>84065.315521</v>
+        <v>84065.315520999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.351477</v>
+        <v>23.351476999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.500000</v>
+        <v>1829.5</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1388.900000</v>
+        <v>-1388.9</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>83890.940505</v>
+        <v>83890.940505000006</v>
       </c>
       <c r="B9" s="1">
-        <v>23.303039</v>
+        <v>23.303038999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>908.895000</v>
+        <v>908.89499999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-201.676000</v>
+        <v>-201.67599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>83901.373888</v>
+        <v>83901.373888000002</v>
       </c>
       <c r="G9" s="1">
         <v>23.305937</v>
       </c>
       <c r="H9" s="1">
-        <v>926.979000</v>
+        <v>926.97900000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.988000</v>
+        <v>-170.988</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>83911.880604</v>
+        <v>83911.880604000005</v>
       </c>
       <c r="L9" s="1">
-        <v>23.308856</v>
+        <v>23.308855999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>950.611000</v>
+        <v>950.61099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.627000</v>
+        <v>-121.627</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>83922.764813</v>
+        <v>83922.764813000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.311879</v>
+        <v>23.311879000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>957.595000</v>
+        <v>957.59500000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.113000</v>
+        <v>-105.113</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>83933.321168</v>
+        <v>83933.321167999995</v>
       </c>
       <c r="V9" s="1">
-        <v>23.314811</v>
+        <v>23.314810999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>964.362000</v>
+        <v>964.36199999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.790500</v>
+        <v>-89.790499999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>83943.540277</v>
+        <v>83943.540276999993</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.317650</v>
+        <v>23.31765</v>
       </c>
       <c r="AB9" s="1">
-        <v>971.673000</v>
+        <v>971.673</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.822600</v>
+        <v>-77.822599999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>83954.154629</v>
+        <v>83954.154628999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.320599</v>
+        <v>23.320599000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.602000</v>
+        <v>976.60199999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.462700</v>
+        <v>-75.462699999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>83964.536886</v>
+        <v>83964.536886000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.323482</v>
+        <v>23.323481999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.917000</v>
+        <v>983.91700000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.814000</v>
+        <v>-79.813999999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>83974.944936</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.326374</v>
+        <v>23.326374000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>992.018000</v>
+        <v>992.01800000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.052000</v>
+        <v>-91.052000000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>83985.592060</v>
+        <v>83985.592059999995</v>
       </c>
       <c r="AU9" s="1">
         <v>23.329331</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>83997.221755</v>
+        <v>83997.221755000006</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.332562</v>
+        <v>23.332561999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>84008.304397</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.335640</v>
+        <v>23.335640000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.121000</v>
+        <v>-195.12100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>84019.330925</v>
+        <v>84019.330925000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.338703</v>
+        <v>23.338702999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1115.730000</v>
+        <v>1115.73</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.207000</v>
+        <v>-310.20699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>84031.048415</v>
+        <v>84031.048414999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.341958</v>
+        <v>23.341958000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.281000</v>
+        <v>-490.28100000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>84042.671663</v>
+        <v>84042.671663000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.345187</v>
+        <v>23.345186999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1345.540000</v>
+        <v>1345.54</v>
       </c>
       <c r="BV9" s="1">
-        <v>-686.872000</v>
+        <v>-686.87199999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>84054.298919</v>
+        <v>84054.298918999993</v>
       </c>
       <c r="BY9" s="1">
         <v>23.348416</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1480.630000</v>
+        <v>1480.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-895.120000</v>
+        <v>-895.12</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>84065.833344</v>
+        <v>84065.833343999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.351620</v>
+        <v>23.35162</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.610000</v>
+        <v>1829.61</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1388.330000</v>
+        <v>-1388.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>83891.278776</v>
+        <v>83891.278776000006</v>
       </c>
       <c r="B10" s="1">
-        <v>23.303133</v>
+        <v>23.303132999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>909.379000</v>
+        <v>909.37900000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.196000</v>
+        <v>-202.196</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>83901.721049</v>
@@ -2552,241 +2968,241 @@
         <v>23.306034</v>
       </c>
       <c r="H10" s="1">
-        <v>927.056000</v>
+        <v>927.05600000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.120000</v>
+        <v>-171.12</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>83912.234262</v>
+        <v>83912.234261999998</v>
       </c>
       <c r="L10" s="1">
         <v>23.308954</v>
       </c>
       <c r="M10" s="1">
-        <v>950.709000</v>
+        <v>950.70899999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.633000</v>
+        <v>-121.633</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>83923.461694</v>
+        <v>83923.461693999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.312073</v>
+        <v>23.312073000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>957.589000</v>
+        <v>957.58900000000006</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.150000</v>
+        <v>-105.15</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>83934.006639</v>
+        <v>83934.006638999999</v>
       </c>
       <c r="V10" s="1">
         <v>23.315002</v>
       </c>
       <c r="W10" s="1">
-        <v>964.310000</v>
+        <v>964.31</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.750300</v>
+        <v>-89.750299999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>83943.888433</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.317747</v>
+        <v>23.317747000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>971.679000</v>
+        <v>971.67899999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.816700</v>
+        <v>-77.816699999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>83954.504805</v>
+        <v>83954.504805000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.320696</v>
+        <v>23.320696000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>976.583000</v>
+        <v>976.58299999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.445500</v>
+        <v>-75.445499999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>83964.884087</v>
+        <v>83964.884086999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.323579</v>
+        <v>23.323578999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.885000</v>
+        <v>983.88499999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.813900</v>
+        <v>-79.813900000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>83975.618009</v>
+        <v>83975.618008999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.326561</v>
+        <v>23.326561000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.021000</v>
+        <v>992.02099999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.079600</v>
+        <v>-91.079599999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>83986.298857</v>
+        <v>83986.298857000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.329527</v>
+        <v>23.329526999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.417000</v>
+        <v>-108.417</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>83997.630458</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.332675</v>
+        <v>23.332674999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>84008.633708</v>
+        <v>84008.633707999994</v>
       </c>
       <c r="BE10" s="1">
         <v>23.335732</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.720000</v>
+        <v>1048.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.133000</v>
+        <v>-195.13300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>84019.707389</v>
+        <v>84019.707389000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.338808</v>
       </c>
       <c r="BK10" s="1">
-        <v>1115.730000</v>
+        <v>1115.73</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.257000</v>
+        <v>-310.25700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>84031.442773</v>
+        <v>84031.442773000002</v>
       </c>
       <c r="BO10" s="1">
         <v>23.342067</v>
       </c>
       <c r="BP10" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.287000</v>
+        <v>-490.28699999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>84043.106655</v>
+        <v>84043.106654999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.345307</v>
+        <v>23.345306999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1345.630000</v>
+        <v>1345.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-686.865000</v>
+        <v>-686.86500000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>84054.744783</v>
+        <v>84054.744783000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.348540</v>
+        <v>23.34854</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1480.490000</v>
+        <v>1480.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-894.993000</v>
+        <v>-894.99300000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>84066.388864</v>
+        <v>84066.388863999993</v>
       </c>
       <c r="CD10" s="1">
         <v>23.351775</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1388.140000</v>
+        <v>-1388.14</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>83891.617543</v>
       </c>
@@ -2794,617 +3210,617 @@
         <v>23.303227</v>
       </c>
       <c r="C11" s="1">
-        <v>909.191000</v>
+        <v>909.19100000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.093000</v>
+        <v>-202.09299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>83902.414952</v>
+        <v>83902.414952000006</v>
       </c>
       <c r="G11" s="1">
-        <v>23.306226</v>
+        <v>23.306225999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>927.161000</v>
+        <v>927.16099999999994</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.954000</v>
+        <v>-170.95400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>83912.919724</v>
+        <v>83912.919724000007</v>
       </c>
       <c r="L11" s="1">
         <v>23.309144</v>
       </c>
       <c r="M11" s="1">
-        <v>950.590000</v>
+        <v>950.59</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.604000</v>
+        <v>-121.604</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>83923.804925</v>
+        <v>83923.804925000004</v>
       </c>
       <c r="Q11" s="1">
         <v>23.312168</v>
       </c>
       <c r="R11" s="1">
-        <v>957.572000</v>
+        <v>957.572</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.151000</v>
+        <v>-105.151</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>83934.351391</v>
+        <v>83934.351391000004</v>
       </c>
       <c r="V11" s="1">
-        <v>23.315098</v>
+        <v>23.315097999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>964.336000</v>
+        <v>964.33600000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.841700</v>
+        <v>-89.841700000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>83944.238637</v>
+        <v>83944.238637000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.317844</v>
+        <v>23.317844000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>971.721000</v>
+        <v>971.721</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.928800</v>
+        <v>-77.928799999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>83955.172460</v>
+        <v>83955.172460000002</v>
       </c>
       <c r="AF11" s="1">
         <v>23.320881</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.596000</v>
+        <v>976.596</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.452300</v>
+        <v>-75.452299999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83965.555174</v>
+        <v>83965.555173999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.323765</v>
+        <v>23.323765000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.904000</v>
+        <v>983.904</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.813000</v>
+        <v>-79.813000000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>83976.017319</v>
+        <v>83976.017319000006</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.326671</v>
+        <v>23.326671000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.001000</v>
+        <v>992.00099999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.063700</v>
+        <v>-91.063699999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>83986.724425</v>
+        <v>83986.724424999993</v>
       </c>
       <c r="AU11" s="1">
         <v>23.329646</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>83998.016842</v>
+        <v>83998.016841999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.332782</v>
+        <v>23.332782000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.922000</v>
+        <v>-123.922</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>84008.993124</v>
+        <v>84008.993124000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.335831</v>
+        <v>23.335830999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.110000</v>
+        <v>-195.11</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>84020.083357</v>
+        <v>84020.083356999996</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.338912</v>
+        <v>23.338912000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1115.750000</v>
+        <v>1115.75</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.236000</v>
+        <v>-310.23599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>84031.897574</v>
+        <v>84031.897574000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.342194</v>
+        <v>23.342193999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.287000</v>
+        <v>-490.28699999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>84043.570910</v>
+        <v>84043.570909999995</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.345436</v>
+        <v>23.345435999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1345.580000</v>
+        <v>1345.58</v>
       </c>
       <c r="BV11" s="1">
-        <v>-686.906000</v>
+        <v>-686.90599999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>84055.163935</v>
+        <v>84055.163935000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.348657</v>
+        <v>23.348656999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1480.550000</v>
+        <v>1480.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-895.146000</v>
+        <v>-895.14599999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>84066.918134</v>
+        <v>84066.918134000007</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.351922</v>
+        <v>23.351921999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1829.440000</v>
+        <v>1829.44</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1388.450000</v>
+        <v>-1388.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>83892.302517</v>
+        <v>83892.302517000004</v>
       </c>
       <c r="B12" s="1">
         <v>23.303417</v>
       </c>
       <c r="C12" s="1">
-        <v>909.272000</v>
+        <v>909.27200000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.468000</v>
+        <v>-202.46799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>83902.757224</v>
+        <v>83902.757224000001</v>
       </c>
       <c r="G12" s="1">
-        <v>23.306321</v>
+        <v>23.306321000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>927.111000</v>
+        <v>927.11099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.149000</v>
+        <v>-171.149</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>83913.277835</v>
+        <v>83913.277835000001</v>
       </c>
       <c r="L12" s="1">
         <v>23.309244</v>
       </c>
       <c r="M12" s="1">
-        <v>950.726000</v>
+        <v>950.726</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.591000</v>
+        <v>-121.59099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>83924.160060</v>
+        <v>83924.160059999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.312267</v>
+        <v>23.312266999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>957.521000</v>
+        <v>957.52099999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.166000</v>
+        <v>-105.166</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>83934.707487</v>
+        <v>83934.707487000007</v>
       </c>
       <c r="V12" s="1">
-        <v>23.315197</v>
+        <v>23.315197000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>964.356000</v>
+        <v>964.35599999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.849300</v>
+        <v>-89.849299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>83944.913201</v>
+        <v>83944.913201000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.318031</v>
+        <v>23.318031000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>971.714000</v>
+        <v>971.71400000000006</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.878300</v>
+        <v>-77.878299999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>83955.535027</v>
+        <v>83955.535027000005</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.320982</v>
+        <v>23.320982000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>976.576000</v>
+        <v>976.57600000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.428900</v>
+        <v>-75.428899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83965.927670</v>
+        <v>83965.927670000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.323869</v>
+        <v>23.323868999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.876000</v>
+        <v>983.87599999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.798300</v>
+        <v>-79.798299999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>83976.409127</v>
+        <v>83976.409127000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.326780</v>
+        <v>23.326779999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.020000</v>
+        <v>992.02</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.077100</v>
+        <v>-91.077100000000002</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>83987.075593</v>
+        <v>83987.075593000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.329743</v>
+        <v>23.329743000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.840000</v>
+        <v>1001.84</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>83998.374955</v>
+        <v>83998.374955000007</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.332882</v>
+        <v>23.332882000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.887000</v>
+        <v>-123.887</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>84009.435244</v>
+        <v>84009.435243999993</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.335954</v>
+        <v>23.335954000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>84020.517852</v>
+        <v>84020.517852000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.339033</v>
+        <v>23.339033000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1115.720000</v>
+        <v>1115.72</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.234000</v>
+        <v>-310.23399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>84032.272541</v>
+        <v>84032.272540999998</v>
       </c>
       <c r="BO12" s="1">
         <v>23.342298</v>
       </c>
       <c r="BP12" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.313000</v>
+        <v>-490.31299999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>84043.943901</v>
+        <v>84043.943901000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.345540</v>
+        <v>23.34554</v>
       </c>
       <c r="BU12" s="1">
-        <v>1345.610000</v>
+        <v>1345.61</v>
       </c>
       <c r="BV12" s="1">
-        <v>-686.897000</v>
+        <v>-686.89700000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>84055.590462</v>
+        <v>84055.590461999993</v>
       </c>
       <c r="BY12" s="1">
         <v>23.348775</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1480.530000</v>
+        <v>1480.53</v>
       </c>
       <c r="CA12" s="1">
-        <v>-895.115000</v>
+        <v>-895.11500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>84067.438934</v>
+        <v>84067.438934000005</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.352066</v>
+        <v>23.352066000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.440000</v>
+        <v>1830.44</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1389.720000</v>
+        <v>-1389.72</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>83892.647734</v>
+        <v>83892.647733999998</v>
       </c>
       <c r="B13" s="1">
-        <v>23.303513</v>
+        <v>23.303512999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>908.484000</v>
+        <v>908.48400000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-201.489000</v>
+        <v>-201.489</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>83903.101912</v>
+        <v>83903.101911999998</v>
       </c>
       <c r="G13" s="1">
         <v>23.306417</v>
       </c>
       <c r="H13" s="1">
-        <v>927.064000</v>
+        <v>927.06399999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.978000</v>
+        <v>-170.97800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>83913.616106</v>
+        <v>83913.616106000001</v>
       </c>
       <c r="L13" s="1">
         <v>23.309338</v>
       </c>
       <c r="M13" s="1">
-        <v>950.728000</v>
+        <v>950.72799999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.601000</v>
+        <v>-121.601</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>83924.856939</v>
+        <v>83924.856939000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.312460</v>
+        <v>23.312460000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>957.533000</v>
+        <v>957.53300000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.132000</v>
+        <v>-105.13200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>83935.162813</v>
+        <v>83935.162813000003</v>
       </c>
       <c r="V13" s="1">
-        <v>23.315323</v>
+        <v>23.315322999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>964.335000</v>
+        <v>964.33500000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.810400</v>
+        <v>-89.810400000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>83945.285195</v>
+        <v>83945.285195000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.318135</v>
+        <v>23.318135000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>971.744000</v>
+        <v>971.74400000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.879400</v>
+        <v>-77.879400000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>83955.878225</v>
+        <v>83955.878224999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.321077</v>
+        <v>23.321076999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.564000</v>
+        <v>976.56399999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.436800</v>
+        <v>-75.436800000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>83966.280325</v>
@@ -3413,1979 +3829,1979 @@
         <v>23.323967</v>
       </c>
       <c r="AL13" s="1">
-        <v>983.932000</v>
+        <v>983.93200000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.804700</v>
+        <v>-79.804699999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>83976.768231</v>
+        <v>83976.768230999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.326880</v>
+        <v>23.326879999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.992000</v>
+        <v>991.99199999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.071600</v>
+        <v>-91.071600000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>83987.669801</v>
+        <v>83987.669800999996</v>
       </c>
       <c r="AU13" s="1">
         <v>23.329908</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.399000</v>
+        <v>-108.399</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>83998.805977</v>
+        <v>83998.805976999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>23.333002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>84009.711514</v>
+        <v>84009.711513999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.336031</v>
+        <v>23.336030999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.710000</v>
+        <v>1048.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.120000</v>
+        <v>-195.12</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>84020.852685</v>
+        <v>84020.852685000005</v>
       </c>
       <c r="BJ13" s="1">
         <v>23.339126</v>
       </c>
       <c r="BK13" s="1">
-        <v>1115.750000</v>
+        <v>1115.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.204000</v>
+        <v>-310.20400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>84032.685708</v>
+        <v>84032.685708000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.342413</v>
+        <v>23.342413000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.306000</v>
+        <v>-490.30599999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>84044.371453</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.345659</v>
+        <v>23.345659000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="BV13" s="1">
-        <v>-686.961000</v>
+        <v>-686.96100000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>84056.038846</v>
+        <v>84056.038845999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.348900</v>
+        <v>23.3489</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1480.590000</v>
+        <v>1480.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-895.086000</v>
+        <v>-895.08600000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>84067.952253</v>
+        <v>84067.952252999996</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.352209</v>
+        <v>23.352208999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.710000</v>
+        <v>1830.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1388.780000</v>
+        <v>-1388.78</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>83892.988487</v>
+        <v>83892.988486999995</v>
       </c>
       <c r="B14" s="1">
-        <v>23.303608</v>
+        <v>23.303608000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>908.933000</v>
+        <v>908.93299999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-201.716000</v>
+        <v>-201.71600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>83903.765595</v>
+        <v>83903.765595000004</v>
       </c>
       <c r="G14" s="1">
-        <v>23.306602</v>
+        <v>23.306602000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>927.234000</v>
+        <v>927.23400000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.933000</v>
+        <v>-170.93299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>83914.289176</v>
+        <v>83914.289176000006</v>
       </c>
       <c r="L14" s="1">
-        <v>23.309525</v>
+        <v>23.309525000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>950.584000</v>
+        <v>950.58399999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.607000</v>
+        <v>-121.607</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>83925.204139</v>
+        <v>83925.204138999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.312557</v>
+        <v>23.312557000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>957.585000</v>
+        <v>957.58500000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.084000</v>
+        <v>-105.084</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>83935.411310</v>
+        <v>83935.411309999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.315392</v>
+        <v>23.315391999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>964.270000</v>
+        <v>964.27</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.790500</v>
+        <v>-89.790499999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>83945.632171</v>
+        <v>83945.632171000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.318231</v>
+        <v>23.318231000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>971.765000</v>
+        <v>971.76499999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.904800</v>
+        <v>-77.904799999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>83956.222449</v>
+        <v>83956.222448999994</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.321173</v>
+        <v>23.321173000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.582000</v>
+        <v>976.58199999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.456000</v>
+        <v>-75.456000000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>83966.631988</v>
+        <v>83966.631987999994</v>
       </c>
       <c r="AK14" s="1">
         <v>23.324064</v>
       </c>
       <c r="AL14" s="1">
-        <v>983.878000</v>
+        <v>983.87800000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.802100</v>
+        <v>-79.802099999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>83977.188838</v>
+        <v>83977.188838000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.326997</v>
+        <v>23.326996999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>992.005000</v>
+        <v>992.005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.065900</v>
+        <v>-91.065899999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>83988.116695</v>
+        <v>83988.116695000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.330032</v>
+        <v>23.330031999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.417000</v>
+        <v>-108.417</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>83999.093162</v>
+        <v>83999.093162000005</v>
       </c>
       <c r="AZ14" s="1">
         <v>23.333081</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.080000</v>
+        <v>1010.08</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>84010.076571</v>
+        <v>84010.076570999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.336132</v>
+        <v>23.336131999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.128000</v>
+        <v>-195.12799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>84021.226139</v>
+        <v>84021.226139000006</v>
       </c>
       <c r="BJ14" s="1">
         <v>23.339229</v>
       </c>
       <c r="BK14" s="1">
-        <v>1115.770000</v>
+        <v>1115.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>84033.088959</v>
+        <v>84033.088959000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.342525</v>
+        <v>23.342524999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.286000</v>
+        <v>-490.286</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>84045.007821</v>
+        <v>84045.007821000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.345836</v>
+        <v>23.345835999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1345.700000</v>
+        <v>1345.7</v>
       </c>
       <c r="BV14" s="1">
-        <v>-686.887000</v>
+        <v>-686.88699999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>84056.469384</v>
+        <v>84056.469383999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.349019</v>
+        <v>23.349018999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1480.610000</v>
+        <v>1480.61</v>
       </c>
       <c r="CA14" s="1">
-        <v>-895.045000</v>
+        <v>-895.04499999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>84068.472076</v>
+        <v>84068.472076000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.352353</v>
+        <v>23.352353000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.050000</v>
+        <v>1831.05</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1389.200000</v>
+        <v>-1389.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>83893.655604</v>
       </c>
       <c r="B15" s="1">
-        <v>23.303793</v>
+        <v>23.303792999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>909.301000</v>
+        <v>909.30100000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.301000</v>
+        <v>-202.30099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>83904.142023</v>
+        <v>83904.142022999993</v>
       </c>
       <c r="G15" s="1">
-        <v>23.306706</v>
+        <v>23.306705999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>927.131000</v>
+        <v>927.13099999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.748000</v>
+        <v>-170.74799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>83914.656216</v>
+        <v>83914.656216000003</v>
       </c>
       <c r="L15" s="1">
-        <v>23.309627</v>
+        <v>23.309626999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>950.526000</v>
+        <v>950.52599999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.672000</v>
+        <v>-121.672</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>83925.552865</v>
+        <v>83925.552865000005</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.312654</v>
+        <v>23.312653999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>957.574000</v>
+        <v>957.57399999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.157000</v>
+        <v>-105.157</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>83935.755064</v>
+        <v>83935.755063999997</v>
       </c>
       <c r="V15" s="1">
-        <v>23.315488</v>
+        <v>23.315487999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>964.338000</v>
+        <v>964.33799999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.851600</v>
+        <v>-89.851600000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>83945.982593</v>
+        <v>83945.982592999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.318328</v>
+        <v>23.318328000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>971.826000</v>
+        <v>971.82600000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.925400</v>
+        <v>-77.925399999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>83956.659922</v>
+        <v>83956.659922000006</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.321294</v>
+        <v>23.321294000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>976.586000</v>
+        <v>976.58600000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.469700</v>
+        <v>-75.469700000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>83967.075451</v>
+        <v>83967.075450999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.324188</v>
+        <v>23.324187999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.903000</v>
+        <v>983.90300000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.806700</v>
+        <v>-79.806700000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>83977.490405</v>
+        <v>83977.490405000004</v>
       </c>
       <c r="AP15" s="1">
         <v>23.327081</v>
       </c>
       <c r="AQ15" s="1">
-        <v>992.013000</v>
+        <v>992.01300000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.077200</v>
+        <v>-91.077200000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>83988.462408</v>
+        <v>83988.462408000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.330128</v>
+        <v>23.330127999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>83999.452760</v>
+        <v>83999.45276</v>
       </c>
       <c r="AZ15" s="1">
         <v>23.333181</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>84010.438161</v>
+        <v>84010.438160999998</v>
       </c>
       <c r="BE15" s="1">
         <v>23.336233</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.140000</v>
+        <v>-195.14</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>84021.603596</v>
+        <v>84021.603596000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.339334</v>
+        <v>23.339334000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1115.710000</v>
+        <v>1115.71</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.233000</v>
+        <v>-310.233</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>84033.902891</v>
+        <v>84033.902891000005</v>
       </c>
       <c r="BO15" s="1">
         <v>23.342751</v>
       </c>
       <c r="BP15" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.276000</v>
+        <v>-490.27600000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>84045.224572</v>
+        <v>84045.224572000006</v>
       </c>
       <c r="BT15" s="1">
         <v>23.345896</v>
       </c>
       <c r="BU15" s="1">
-        <v>1345.770000</v>
+        <v>1345.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-686.940000</v>
+        <v>-686.94</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>84056.891468</v>
+        <v>84056.891468000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.349137</v>
+        <v>23.349136999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1480.530000</v>
+        <v>1480.53</v>
       </c>
       <c r="CA15" s="1">
-        <v>-895.146000</v>
+        <v>-895.14599999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>84069.024108</v>
+        <v>84069.024107999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.352507</v>
+        <v>23.352506999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.080000</v>
+        <v>1830.08</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1389.400000</v>
+        <v>-1389.4</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>83894.012229</v>
       </c>
       <c r="B16" s="1">
-        <v>23.303892</v>
+        <v>23.303892000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>909.484000</v>
+        <v>909.48400000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.376000</v>
+        <v>-202.376</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>83904.483270</v>
+        <v>83904.483269999997</v>
       </c>
       <c r="G16" s="1">
         <v>23.306801</v>
       </c>
       <c r="H16" s="1">
-        <v>926.735000</v>
+        <v>926.73500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.974000</v>
+        <v>-170.97399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>83914.998951</v>
+        <v>83914.998951000001</v>
       </c>
       <c r="L16" s="1">
-        <v>23.309722</v>
+        <v>23.309722000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>950.563000</v>
+        <v>950.56299999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.575000</v>
+        <v>-121.575</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>83925.903996</v>
+        <v>83925.903995999994</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.312751</v>
+        <v>23.312750999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>957.542000</v>
+        <v>957.54200000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.144000</v>
+        <v>-105.14400000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>83936.187554</v>
+        <v>83936.187554000004</v>
       </c>
       <c r="V16" s="1">
-        <v>23.315608</v>
+        <v>23.315608000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>964.340000</v>
+        <v>964.34</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.813100</v>
+        <v>-89.813100000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>83946.414062</v>
+        <v>83946.414061999996</v>
       </c>
       <c r="AA16" s="1">
         <v>23.318448</v>
       </c>
       <c r="AB16" s="1">
-        <v>971.731000</v>
+        <v>971.73099999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.852800</v>
+        <v>-77.852800000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>83956.919869</v>
+        <v>83956.919869000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.321367</v>
+        <v>23.321366999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>976.580000</v>
+        <v>976.58</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.452100</v>
+        <v>-75.452100000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>83967.333826</v>
+        <v>83967.333826000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.324259</v>
+        <v>23.324259000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>983.893000</v>
+        <v>983.89300000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.788800</v>
+        <v>-79.788799999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>83977.850513</v>
+        <v>83977.850512999998</v>
       </c>
       <c r="AP16" s="1">
         <v>23.327181</v>
       </c>
       <c r="AQ16" s="1">
-        <v>992.022000</v>
+        <v>992.02200000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.050000</v>
+        <v>-91.05</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>83988.824486</v>
+        <v>83988.824485999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.330229</v>
+        <v>23.330228999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.830000</v>
+        <v>1001.83</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>83999.809385</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.333280</v>
+        <v>23.333279999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.080000</v>
+        <v>1010.08</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>84011.159337</v>
+        <v>84011.159337000005</v>
       </c>
       <c r="BE16" s="1">
         <v>23.336433</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.118000</v>
+        <v>-195.11799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>84022.355531</v>
+        <v>84022.355530999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.339543</v>
+        <v>23.339542999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1115.720000</v>
+        <v>1115.72</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.229000</v>
+        <v>-310.22899999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>84034.294234</v>
+        <v>84034.294234000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.342860</v>
+        <v>23.342860000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.317000</v>
+        <v>-490.31700000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>84045.646172</v>
+        <v>84045.646171999993</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.346013</v>
+        <v>23.346012999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1345.820000</v>
+        <v>1345.82</v>
       </c>
       <c r="BV16" s="1">
-        <v>-686.899000</v>
+        <v>-686.899</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>84057.302155</v>
+        <v>84057.302154999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.349251</v>
+        <v>23.349250999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1480.620000</v>
+        <v>1480.62</v>
       </c>
       <c r="CA16" s="1">
-        <v>-895.138000</v>
+        <v>-895.13800000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>84069.882226</v>
+        <v>84069.882226000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.352745</v>
+        <v>23.352744999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.020000</v>
+        <v>1831.02</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1388.380000</v>
+        <v>-1388.38</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>83894.355955</v>
+        <v>83894.355955000006</v>
       </c>
       <c r="B17" s="1">
         <v>23.303988</v>
       </c>
       <c r="C17" s="1">
-        <v>909.438000</v>
+        <v>909.43799999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-201.917000</v>
+        <v>-201.917</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>83904.833941</v>
+        <v>83904.833941000004</v>
       </c>
       <c r="G17" s="1">
         <v>23.306898</v>
       </c>
       <c r="H17" s="1">
-        <v>926.912000</v>
+        <v>926.91200000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.206000</v>
+        <v>-171.20599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>83915.340236</v>
+        <v>83915.340236000004</v>
       </c>
       <c r="L17" s="1">
-        <v>23.309817</v>
+        <v>23.309816999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>950.656000</v>
+        <v>950.65599999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.584000</v>
+        <v>-121.584</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>83926.366772</v>
+        <v>83926.366771999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.312880</v>
+        <v>23.31288</v>
       </c>
       <c r="R17" s="1">
-        <v>957.536000</v>
+        <v>957.53599999999994</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.163000</v>
+        <v>-105.163</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>83936.452907</v>
+        <v>83936.452906999999</v>
       </c>
       <c r="V17" s="1">
-        <v>23.315681</v>
+        <v>23.315681000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>964.389000</v>
+        <v>964.38900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.775600</v>
+        <v>-89.775599999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>83946.688350</v>
+        <v>83946.688349999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.318525</v>
+        <v>23.318525000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>971.717000</v>
+        <v>971.71699999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.902600</v>
+        <v>-77.902600000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>83957.262561</v>
+        <v>83957.262560999996</v>
       </c>
       <c r="AF17" s="1">
         <v>23.321462</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.581000</v>
+        <v>976.58100000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.427000</v>
+        <v>-75.427000000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>83967.685986</v>
+        <v>83967.685985999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.324357</v>
+        <v>23.324356999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>983.924000</v>
+        <v>983.92399999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.810300</v>
+        <v>-79.810299999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>83978.211588</v>
+        <v>83978.211588000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.327281</v>
+        <v>23.327280999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>992.013000</v>
+        <v>992.01300000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.083700</v>
+        <v>-91.083699999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>83989.187558</v>
+        <v>83989.187558000005</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.330330</v>
+        <v>23.33033</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.426000</v>
+        <v>-108.426</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>84000.533543</v>
+        <v>84000.533542999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>23.333482</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.906000</v>
+        <v>-123.90600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>84011.521914</v>
+        <v>84011.521913999997</v>
       </c>
       <c r="BE17" s="1">
         <v>23.336534</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.123000</v>
+        <v>-195.12299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>84022.731993</v>
+        <v>84022.731992999994</v>
       </c>
       <c r="BJ17" s="1">
         <v>23.339648</v>
       </c>
       <c r="BK17" s="1">
-        <v>1115.750000</v>
+        <v>1115.75</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.237000</v>
+        <v>-310.23700000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>84034.706905</v>
+        <v>84034.706904999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.342974</v>
+        <v>23.342974000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.290000</v>
+        <v>-490.29</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>84046.435802</v>
+        <v>84046.435802000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.346232</v>
+        <v>23.346232000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1345.850000</v>
+        <v>1345.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-686.861000</v>
+        <v>-686.86099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>84058.052108</v>
+        <v>84058.052108000003</v>
       </c>
       <c r="BY17" s="1">
         <v>23.349459</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1480.520000</v>
+        <v>1480.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-895.096000</v>
+        <v>-895.096</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>84070.102907</v>
+        <v>84070.102906999993</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.352806</v>
+        <v>23.352806000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1829.660000</v>
+        <v>1829.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1387.890000</v>
+        <v>-1387.89</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>83894.694723</v>
+        <v>83894.694722999993</v>
       </c>
       <c r="B18" s="1">
-        <v>23.304082</v>
+        <v>23.304082000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>909.496000</v>
+        <v>909.49599999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-201.377000</v>
+        <v>-201.37700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>83905.265462</v>
+        <v>83905.265461999996</v>
       </c>
       <c r="G18" s="1">
-        <v>23.307018</v>
+        <v>23.307017999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>927.094000</v>
+        <v>927.09400000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.017000</v>
+        <v>-171.017</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>83916.126390</v>
+        <v>83916.126390000005</v>
       </c>
       <c r="L18" s="1">
-        <v>23.310035</v>
+        <v>23.310034999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>950.595000</v>
+        <v>950.59500000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.643000</v>
+        <v>-121.643</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>83926.612776</v>
+        <v>83926.612775999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.312948</v>
+        <v>23.312947999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>957.531000</v>
+        <v>957.53099999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.132000</v>
+        <v>-105.13200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>83936.797138</v>
+        <v>83936.797137999994</v>
       </c>
       <c r="V18" s="1">
-        <v>23.315777</v>
+        <v>23.315777000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>964.443000</v>
+        <v>964.44299999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.899300</v>
+        <v>-89.899299999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>83947.037037</v>
+        <v>83947.037037000002</v>
       </c>
       <c r="AA18" s="1">
         <v>23.318621</v>
       </c>
       <c r="AB18" s="1">
-        <v>971.699000</v>
+        <v>971.69899999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.809800</v>
+        <v>-77.809799999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>83957.605328</v>
+        <v>83957.605328000005</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.321557</v>
+        <v>23.321556999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.588000</v>
+        <v>976.58799999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.462700</v>
+        <v>-75.462699999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>83968.035666</v>
+        <v>83968.035665999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.324454</v>
+        <v>23.324453999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>983.886000</v>
+        <v>983.88599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.814200</v>
+        <v>-79.8142</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>83978.930291</v>
+        <v>83978.930290999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.327481</v>
+        <v>23.327480999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>992.004000</v>
+        <v>992.00400000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.064500</v>
+        <v>-91.064499999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>83989.921675</v>
+        <v>83989.921675000005</v>
       </c>
       <c r="AU18" s="1">
         <v>23.330534</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.800000</v>
+        <v>1001.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>84000.910007</v>
+        <v>84000.910006999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>23.333586</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>84011.882009</v>
+        <v>84011.882008999994</v>
       </c>
       <c r="BE18" s="1">
         <v>23.336634</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.117000</v>
+        <v>-195.11699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>84023.106969</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.339752</v>
+        <v>23.339752000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.236000</v>
+        <v>-310.23599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>84035.468761</v>
+        <v>84035.468760999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.343186</v>
+        <v>23.343185999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.302000</v>
+        <v>-490.30200000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>84046.928330</v>
+        <v>84046.928329999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.346369</v>
+        <v>23.346368999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1345.840000</v>
+        <v>1345.84</v>
       </c>
       <c r="BV18" s="1">
-        <v>-686.845000</v>
+        <v>-686.84500000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>84058.178091</v>
+        <v>84058.178090999994</v>
       </c>
       <c r="BY18" s="1">
         <v>23.349494</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1480.550000</v>
+        <v>1480.55</v>
       </c>
       <c r="CA18" s="1">
-        <v>-895.136000</v>
+        <v>-895.13599999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>84070.638587</v>
+        <v>84070.638586999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.352955</v>
+        <v>23.352955000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.510000</v>
+        <v>1830.51</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1389.590000</v>
+        <v>-1389.59</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>83895.158482</v>
+        <v>83895.158481999999</v>
       </c>
       <c r="B19" s="1">
-        <v>23.304211</v>
+        <v>23.304210999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>909.528000</v>
+        <v>909.52800000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-201.985000</v>
+        <v>-201.98500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>83905.551171</v>
+        <v>83905.551170999999</v>
       </c>
       <c r="G19" s="1">
         <v>23.307098</v>
       </c>
       <c r="H19" s="1">
-        <v>927.139000</v>
+        <v>927.13900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.986000</v>
+        <v>-170.98599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>83916.388247</v>
+        <v>83916.388246999995</v>
       </c>
       <c r="L19" s="1">
         <v>23.310108</v>
       </c>
       <c r="M19" s="1">
-        <v>950.585000</v>
+        <v>950.58500000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.704000</v>
+        <v>-121.70399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>83926.958488</v>
+        <v>83926.958488000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.313044</v>
+        <v>23.313044000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>957.541000</v>
+        <v>957.54100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.083000</v>
+        <v>-105.083</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>83937.143835</v>
+        <v>83937.143834999995</v>
       </c>
       <c r="V19" s="1">
         <v>23.315873</v>
       </c>
       <c r="W19" s="1">
-        <v>964.214000</v>
+        <v>964.21400000000006</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.872000</v>
+        <v>-89.872</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>83947.388728</v>
+        <v>83947.388728000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.318719</v>
+        <v>23.318719000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>971.685000</v>
+        <v>971.68499999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.894300</v>
+        <v>-77.894300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>83958.293743</v>
+        <v>83958.293743000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.321748</v>
+        <v>23.321747999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>976.554000</v>
+        <v>976.55399999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.461600</v>
+        <v>-75.461600000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>83968.731553</v>
+        <v>83968.731553000005</v>
       </c>
       <c r="AK19" s="1">
         <v>23.324648</v>
       </c>
       <c r="AL19" s="1">
-        <v>983.914000</v>
+        <v>983.91399999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.818200</v>
+        <v>-79.818200000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>83979.288403</v>
+        <v>83979.288402999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.327580</v>
+        <v>23.327580000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>992.016000</v>
+        <v>992.01599999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.078400</v>
+        <v>-91.078400000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>83990.304052</v>
+        <v>83990.304052000007</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.330640</v>
+        <v>23.330639999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.422000</v>
+        <v>-108.422</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>84001.298870</v>
+        <v>84001.298869999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.333694</v>
+        <v>23.333694000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>84012.565991</v>
+        <v>84012.565990999996</v>
       </c>
       <c r="BE19" s="1">
         <v>23.336824</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.121000</v>
+        <v>-195.12100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>84023.809305</v>
+        <v>84023.809305000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.339947</v>
+        <v>23.339946999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1115.730000</v>
+        <v>1115.73</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.215000</v>
+        <v>-310.21499999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>84035.950377</v>
+        <v>84035.950377000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.343320</v>
+        <v>23.343319999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.299000</v>
+        <v>-490.29899999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>84047.350922</v>
+        <v>84047.350921999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.346486</v>
+        <v>23.346485999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1345.980000</v>
+        <v>1345.98</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.756000</v>
+        <v>-686.75599999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>84058.592250</v>
+        <v>84058.592250000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.349609</v>
+        <v>23.349609000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1480.630000</v>
+        <v>1480.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-895.108000</v>
+        <v>-895.10799999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>84071.178233</v>
+        <v>84071.178232999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.353105</v>
+        <v>23.353104999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.500000</v>
+        <v>1830.5</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1388.290000</v>
+        <v>-1388.29</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>83895.399043</v>
+        <v>83895.399042999998</v>
       </c>
       <c r="B20" s="1">
         <v>23.304278</v>
       </c>
       <c r="C20" s="1">
-        <v>908.762000</v>
+        <v>908.76199999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.040000</v>
+        <v>-202.04</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>83905.914229</v>
+        <v>83905.914229000002</v>
       </c>
       <c r="G20" s="1">
         <v>23.307198</v>
       </c>
       <c r="H20" s="1">
-        <v>927.281000</v>
+        <v>927.28099999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.270000</v>
+        <v>-171.27</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>83916.752807</v>
+        <v>83916.752806999997</v>
       </c>
       <c r="L20" s="1">
         <v>23.310209</v>
       </c>
       <c r="M20" s="1">
-        <v>950.625000</v>
+        <v>950.625</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.634000</v>
+        <v>-121.634</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>83927.304232</v>
+        <v>83927.304231999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.313140</v>
+        <v>23.313140000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>957.550000</v>
+        <v>957.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.105000</v>
+        <v>-105.105</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>83937.826827</v>
+        <v>83937.826826999997</v>
       </c>
       <c r="V20" s="1">
         <v>23.316063</v>
       </c>
       <c r="W20" s="1">
-        <v>964.351000</v>
+        <v>964.351</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.921400</v>
+        <v>-89.921400000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>83948.083101</v>
+        <v>83948.083100999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.318912</v>
+        <v>23.318912000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>971.767000</v>
+        <v>971.76700000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.892400</v>
+        <v>-77.892399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>83958.636974</v>
+        <v>83958.636973999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.321844</v>
+        <v>23.321843999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.583000</v>
+        <v>976.58299999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.439200</v>
+        <v>-75.4392</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>83969.083714</v>
+        <v>83969.083713999993</v>
       </c>
       <c r="AK20" s="1">
         <v>23.324745</v>
       </c>
       <c r="AL20" s="1">
-        <v>983.923000</v>
+        <v>983.923</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.809600</v>
+        <v>-79.809600000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>83979.648535</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.327680</v>
+        <v>23.327680000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>992.024000</v>
+        <v>992.024</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.060100</v>
+        <v>-91.060100000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>83990.990516</v>
+        <v>83990.990516000005</v>
       </c>
       <c r="AU20" s="1">
         <v>23.330831</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.432000</v>
+        <v>-108.432</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>84001.984373</v>
+        <v>84001.984372999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.333885</v>
+        <v>23.333884999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.896000</v>
+        <v>-123.896</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>84012.990579</v>
+        <v>84012.990579000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.336942</v>
+        <v>23.336942000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.132000</v>
+        <v>-195.13200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>84024.233384</v>
+        <v>84024.233384000006</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.340065</v>
+        <v>23.340064999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1115.750000</v>
+        <v>1115.75</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.236000</v>
+        <v>-310.23599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>84036.353127</v>
+        <v>84036.353126999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.343431</v>
+        <v>23.343430999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.276000</v>
+        <v>-490.27600000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>84047.765579</v>
+        <v>84047.765578999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.346602</v>
+        <v>23.346602000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1345.980000</v>
+        <v>1345.98</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.786000</v>
+        <v>-686.78599999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>84059.047120</v>
+        <v>84059.047120000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.349735</v>
+        <v>23.349734999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1480.600000</v>
+        <v>1480.6</v>
       </c>
       <c r="CA20" s="1">
-        <v>-895.109000</v>
+        <v>-895.10900000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>84071.718874</v>
+        <v>84071.718873999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.353255</v>
+        <v>23.353255000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.460000</v>
+        <v>1829.46</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1389.310000</v>
+        <v>-1389.31</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>83895.731361</v>
+        <v>83895.731360999998</v>
       </c>
       <c r="B21" s="1">
-        <v>23.304370</v>
+        <v>23.304369999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>909.483000</v>
+        <v>909.48299999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.199000</v>
+        <v>-202.19900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>83906.256963</v>
+        <v>83906.256963000007</v>
       </c>
       <c r="G21" s="1">
-        <v>23.307294</v>
+        <v>23.307293999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>927.054000</v>
+        <v>927.05399999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.023000</v>
+        <v>-171.023</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>83917.437284</v>
@@ -5394,1510 +5810,1511 @@
         <v>23.310399</v>
       </c>
       <c r="M21" s="1">
-        <v>950.508000</v>
+        <v>950.50800000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.744000</v>
+        <v>-121.744</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>83928.004055</v>
+        <v>83928.004054999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.313334</v>
+        <v>23.313334000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>957.620000</v>
+        <v>957.62</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.154000</v>
+        <v>-105.154</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>83938.171546</v>
+        <v>83938.171545999998</v>
       </c>
       <c r="V21" s="1">
-        <v>23.316159</v>
+        <v>23.316158999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>964.395000</v>
+        <v>964.39499999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.998400</v>
+        <v>-89.998400000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>83948.430835</v>
+        <v>83948.430835000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.319009</v>
+        <v>23.319009000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>971.799000</v>
+        <v>971.79899999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.923400</v>
+        <v>-77.923400000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>83958.977726</v>
+        <v>83958.977725999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.321938</v>
+        <v>23.321937999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.585000</v>
+        <v>976.58500000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.463100</v>
+        <v>-75.463099999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>83969.436864</v>
+        <v>83969.436864000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.324844</v>
+        <v>23.324843999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>983.913000</v>
+        <v>983.91300000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.814300</v>
+        <v>-79.814300000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>83980.343431</v>
+        <v>83980.343431000001</v>
       </c>
       <c r="AP21" s="1">
         <v>23.327873</v>
       </c>
       <c r="AQ21" s="1">
-        <v>992.038000</v>
+        <v>992.03800000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.069900</v>
+        <v>-91.069900000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>83991.397241</v>
+        <v>83991.397240999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.330944</v>
+        <v>23.330943999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.391000</v>
+        <v>-108.39100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>84002.374196</v>
+        <v>84002.374196000004</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.333993</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>84013.358103</v>
+        <v>84013.358103000006</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.337044</v>
+        <v>23.337043999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.114000</v>
+        <v>-195.114</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>84024.609847</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.340169</v>
+        <v>23.340168999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>84036.763319</v>
+        <v>84036.763319000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.343545</v>
+        <v>23.343544999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.294000</v>
+        <v>-490.29399999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>84048.248223</v>
+        <v>84048.248223000002</v>
       </c>
       <c r="BT21" s="1">
         <v>23.346736</v>
       </c>
       <c r="BU21" s="1">
-        <v>1346.010000</v>
+        <v>1346.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.655000</v>
+        <v>-686.65499999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>84059.495465</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.349860</v>
+        <v>23.34986</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1480.490000</v>
+        <v>1480.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-895.056000</v>
+        <v>-895.05600000000004</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>84072.257528</v>
+        <v>84072.257528000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.353405</v>
+        <v>23.353404999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.010000</v>
+        <v>1831.01</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1389.180000</v>
+        <v>-1389.18</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>83896.080049</v>
+        <v>83896.080048999997</v>
       </c>
       <c r="B22" s="1">
-        <v>23.304467</v>
+        <v>23.304466999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>909.381000</v>
+        <v>909.38099999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.095000</v>
+        <v>-202.095</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>83906.944914</v>
+        <v>83906.944914000007</v>
       </c>
       <c r="G22" s="1">
         <v>23.307485</v>
       </c>
       <c r="H22" s="1">
-        <v>927.087000</v>
+        <v>927.08699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.026000</v>
+        <v>-171.02600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>83917.789945</v>
+        <v>83917.789944999997</v>
       </c>
       <c r="L22" s="1">
-        <v>23.310497</v>
+        <v>23.310497000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>950.576000</v>
+        <v>950.57600000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.446000</v>
+        <v>-121.446</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>83928.358694</v>
+        <v>83928.358693999995</v>
       </c>
       <c r="Q22" s="1">
         <v>23.313433</v>
       </c>
       <c r="R22" s="1">
-        <v>957.539000</v>
+        <v>957.53899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.141000</v>
+        <v>-105.14100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>83938.515288</v>
+        <v>83938.515287999995</v>
       </c>
       <c r="V22" s="1">
-        <v>23.316254</v>
+        <v>23.316254000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>964.291000</v>
+        <v>964.29100000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.852400</v>
+        <v>-89.852400000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>83948.783484</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.319107</v>
+        <v>23.319106999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>971.665000</v>
+        <v>971.66499999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.960000</v>
+        <v>-77.959999999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>83959.648358</v>
+        <v>83959.648358000006</v>
       </c>
       <c r="AF22" s="1">
         <v>23.322125</v>
       </c>
       <c r="AG22" s="1">
-        <v>976.565000</v>
+        <v>976.56500000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.436200</v>
+        <v>-75.436199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>83970.166479</v>
+        <v>83970.166479000007</v>
       </c>
       <c r="AK22" s="1">
         <v>23.325046</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.899000</v>
+        <v>983.899</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.789700</v>
+        <v>-79.789699999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>83980.752097</v>
+        <v>83980.752097000004</v>
       </c>
       <c r="AP22" s="1">
         <v>23.327987</v>
       </c>
       <c r="AQ22" s="1">
-        <v>992.010000</v>
+        <v>992.01</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.044300</v>
+        <v>-91.044300000000007</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>83991.789570</v>
+        <v>83991.789569999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.331053</v>
+        <v>23.331053000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.416000</v>
+        <v>-108.416</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>84002.733796</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.334093</v>
+        <v>23.334092999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.070000</v>
+        <v>1010.07</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.889000</v>
+        <v>-123.889</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>84013.716213</v>
+        <v>84013.716213000007</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.337143</v>
+        <v>23.337143000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.127000</v>
+        <v>-195.12700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>84024.984327</v>
+        <v>84024.984326999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>23.340273</v>
       </c>
       <c r="BK22" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>84037.224102</v>
+        <v>84037.224101999993</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.343673</v>
+        <v>23.343672999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.284000</v>
+        <v>-490.28399999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>84048.627624</v>
+        <v>84048.627624000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.346841</v>
+        <v>23.346841000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1345.920000</v>
+        <v>1345.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.639000</v>
+        <v>-686.63900000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>84059.945832</v>
+        <v>84059.945831999998</v>
       </c>
       <c r="BY22" s="1">
         <v>23.349985</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1480.530000</v>
+        <v>1480.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-894.977000</v>
+        <v>-894.97699999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>84072.798664</v>
+        <v>84072.798664000002</v>
       </c>
       <c r="CD22" s="1">
         <v>23.353555</v>
       </c>
       <c r="CE22" s="1">
-        <v>1829.500000</v>
+        <v>1829.5</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1388.270000</v>
+        <v>-1388.27</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>83896.762048</v>
+        <v>83896.762048000004</v>
       </c>
       <c r="B23" s="1">
-        <v>23.304656</v>
+        <v>23.304656000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>909.188000</v>
+        <v>909.18799999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.974000</v>
+        <v>-200.97399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>83907.287650</v>
+        <v>83907.287649999998</v>
       </c>
       <c r="G23" s="1">
-        <v>23.307580</v>
+        <v>23.307580000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>927.162000</v>
+        <v>927.16200000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.907000</v>
+        <v>-170.90700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>83918.130229</v>
+        <v>83918.130229000002</v>
       </c>
       <c r="L23" s="1">
         <v>23.310592</v>
       </c>
       <c r="M23" s="1">
-        <v>950.661000</v>
+        <v>950.66099999999994</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.587000</v>
+        <v>-121.587</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>83928.712341</v>
+        <v>83928.712341000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.313531</v>
+        <v>23.313531000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>957.534000</v>
+        <v>957.53399999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.120000</v>
+        <v>-105.12</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>83939.185864</v>
+        <v>83939.185863999999</v>
       </c>
       <c r="V23" s="1">
-        <v>23.316441</v>
+        <v>23.316441000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>964.406000</v>
+        <v>964.40599999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.870400</v>
+        <v>-89.870400000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>83949.456065</v>
+        <v>83949.456065000006</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.319293</v>
+        <v>23.319292999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>971.715000</v>
+        <v>971.71500000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.861000</v>
+        <v>-77.861000000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>83960.018828</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.322227</v>
+        <v>23.322227000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>976.584000</v>
+        <v>976.58399999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.444000</v>
+        <v>-75.444000000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>83970.476478</v>
+        <v>83970.476477999997</v>
       </c>
       <c r="AK23" s="1">
         <v>23.325132</v>
       </c>
       <c r="AL23" s="1">
-        <v>983.902000</v>
+        <v>983.90200000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.806000</v>
+        <v>-79.805999999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>83981.118145</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.328088</v>
+        <v>23.328088000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.016000</v>
+        <v>992.01599999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.041000</v>
+        <v>-91.040999999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>83992.164052</v>
+        <v>83992.164051999993</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.331157</v>
+        <v>23.331157000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.800000</v>
+        <v>1001.8</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.423000</v>
+        <v>-108.423</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>84003.093893</v>
+        <v>84003.093892999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.334193</v>
+        <v>23.334192999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>84014.152725</v>
+        <v>84014.152725000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.337265</v>
+        <v>23.337264999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.123000</v>
+        <v>-195.12299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>84025.420345</v>
+        <v>84025.420345000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.340395</v>
+        <v>23.340395000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1115.710000</v>
+        <v>1115.71</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.222000</v>
+        <v>-310.22199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>84037.577254</v>
+        <v>84037.577254000003</v>
       </c>
       <c r="BO23" s="1">
         <v>23.343771</v>
       </c>
       <c r="BP23" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.257000</v>
+        <v>-490.25700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>84049.033352</v>
+        <v>84049.033351999999</v>
       </c>
       <c r="BT23" s="1">
         <v>23.346954</v>
       </c>
       <c r="BU23" s="1">
-        <v>1346.020000</v>
+        <v>1346.02</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.614000</v>
+        <v>-686.61400000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>84060.366970</v>
+        <v>84060.366970000003</v>
       </c>
       <c r="BY23" s="1">
         <v>23.350102</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1480.440000</v>
+        <v>1480.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-895.087000</v>
+        <v>-895.08699999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>84073.334838</v>
+        <v>84073.334837999995</v>
       </c>
       <c r="CD23" s="1">
         <v>23.353704</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.420000</v>
+        <v>1830.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1389.740000</v>
+        <v>-1389.74</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>83897.106768</v>
+        <v>83897.106767999998</v>
       </c>
       <c r="B24" s="1">
-        <v>23.304752</v>
+        <v>23.304752000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>909.191000</v>
+        <v>909.19100000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-201.848000</v>
+        <v>-201.84800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>83907.632401</v>
+        <v>83907.632400999995</v>
       </c>
       <c r="G24" s="1">
-        <v>23.307676</v>
+        <v>23.307676000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>926.979000</v>
+        <v>926.97900000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.860000</v>
+        <v>-170.86</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>83918.815668</v>
+        <v>83918.815667999996</v>
       </c>
       <c r="L24" s="1">
         <v>23.310782</v>
       </c>
       <c r="M24" s="1">
-        <v>950.678000</v>
+        <v>950.678</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.509000</v>
+        <v>-121.509</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>83929.382946</v>
+        <v>83929.382945999998</v>
       </c>
       <c r="Q24" s="1">
         <v>23.313717</v>
       </c>
       <c r="R24" s="1">
-        <v>957.578000</v>
+        <v>957.57799999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.098000</v>
+        <v>-105.098</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>83939.547447</v>
+        <v>83939.547447000004</v>
       </c>
       <c r="V24" s="1">
-        <v>23.316541</v>
+        <v>23.316541000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>964.359000</v>
+        <v>964.35900000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.860800</v>
+        <v>-89.860799999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>83949.830507</v>
+        <v>83949.830507000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.319397</v>
+        <v>23.319396999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>971.744000</v>
+        <v>971.74400000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.926900</v>
+        <v>-77.926900000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>83960.365037</v>
+        <v>83960.365036999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.322324</v>
+        <v>23.322323999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.578000</v>
+        <v>976.57799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.429000</v>
+        <v>-75.429000000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>83970.833601</v>
+        <v>83970.833601000006</v>
       </c>
       <c r="AK24" s="1">
         <v>23.325232</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.888000</v>
+        <v>983.88800000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.806400</v>
+        <v>-79.806399999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>83981.474305</v>
+        <v>83981.474304999996</v>
       </c>
       <c r="AP24" s="1">
         <v>23.328187</v>
       </c>
       <c r="AQ24" s="1">
-        <v>992.016000</v>
+        <v>992.01599999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.066600</v>
+        <v>-91.066599999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>83992.616401</v>
+        <v>83992.616401000007</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.331282</v>
+        <v>23.331282000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>84003.532851</v>
+        <v>84003.532850999996</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.334315</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.899000</v>
+        <v>-123.899</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>84014.436404</v>
+        <v>84014.436403999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.337343</v>
+        <v>23.337343000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.128000</v>
+        <v>-195.12799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>84025.773990</v>
+        <v>84025.773990000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.340493</v>
+        <v>23.340492999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1115.740000</v>
+        <v>1115.74</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.239000</v>
+        <v>-310.23899999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>84037.977525</v>
+        <v>84037.977524999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.343883</v>
+        <v>23.343883000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.255000</v>
+        <v>-490.255</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>84049.459910</v>
+        <v>84049.459910000005</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.347072</v>
+        <v>23.347072000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1345.920000</v>
+        <v>1345.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.530000</v>
+        <v>-686.53</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>84060.789527</v>
+        <v>84060.789527000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.350219</v>
+        <v>23.350218999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1480.430000</v>
+        <v>1480.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-895.087000</v>
+        <v>-895.08699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>84073.878479</v>
+        <v>84073.878479000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.353855</v>
+        <v>23.353854999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.040000</v>
+        <v>1830.04</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1388.210000</v>
+        <v>-1388.21</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>83897.444047</v>
+        <v>83897.444046999997</v>
       </c>
       <c r="B25" s="1">
-        <v>23.304846</v>
+        <v>23.304846000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>909.414000</v>
+        <v>909.41399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.263000</v>
+        <v>-202.26300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>83908.297504</v>
+        <v>83908.297504000002</v>
       </c>
       <c r="G25" s="1">
-        <v>23.307860</v>
+        <v>23.307860000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>927.197000</v>
+        <v>927.197</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.109000</v>
+        <v>-171.10900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>83919.165346</v>
+        <v>83919.165345999994</v>
       </c>
       <c r="L25" s="1">
         <v>23.310879</v>
       </c>
       <c r="M25" s="1">
-        <v>950.587000</v>
+        <v>950.58699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.573000</v>
+        <v>-121.57299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>83929.756929</v>
+        <v>83929.756928999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.313821</v>
+        <v>23.313821000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>957.543000</v>
+        <v>957.54300000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.117000</v>
+        <v>-105.117</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>83939.887702</v>
+        <v>83939.887702000007</v>
       </c>
       <c r="V25" s="1">
-        <v>23.316635</v>
+        <v>23.316635000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>964.332000</v>
+        <v>964.33199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.788600</v>
+        <v>-89.788600000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>83950.177210</v>
+        <v>83950.177209999994</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.319494</v>
+        <v>23.319493999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>971.700000</v>
+        <v>971.7</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.855400</v>
+        <v>-77.855400000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>83960.707275</v>
+        <v>83960.707274999993</v>
       </c>
       <c r="AF25" s="1">
         <v>23.322419</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.573000</v>
+        <v>976.57299999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.438500</v>
+        <v>-75.438500000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>83971.176333</v>
+        <v>83971.176332999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.325327</v>
+        <v>23.325327000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>983.926000</v>
+        <v>983.92600000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.788800</v>
+        <v>-79.788799999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>83981.923649</v>
+        <v>83981.923649000004</v>
       </c>
       <c r="AP25" s="1">
         <v>23.328312</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.003000</v>
+        <v>992.00300000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.057900</v>
+        <v>-91.057900000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>83992.882752</v>
+        <v>83992.882752000005</v>
       </c>
       <c r="AU25" s="1">
         <v>23.331356</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.820000</v>
+        <v>1001.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>84003.810348</v>
+        <v>84003.810347999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.334392</v>
+        <v>23.334392000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.050000</v>
+        <v>1010.05</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.890000</v>
+        <v>-123.89</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>84014.798484</v>
+        <v>84014.798483999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.337444</v>
+        <v>23.337444000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.125000</v>
+        <v>-195.125</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>84026.129590</v>
+        <v>84026.129589999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.340592</v>
+        <v>23.340592000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1115.760000</v>
+        <v>1115.76</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.233000</v>
+        <v>-310.233</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>84038.406069</v>
+        <v>84038.406069000004</v>
       </c>
       <c r="BO25" s="1">
         <v>23.344002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.259000</v>
+        <v>-490.25900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>84050.287239</v>
+        <v>84050.287238999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.347302</v>
+        <v>23.347301999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1345.920000</v>
+        <v>1345.92</v>
       </c>
       <c r="BV25" s="1">
-        <v>-686.434000</v>
+        <v>-686.43399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>84061.239404</v>
+        <v>84061.239404000007</v>
       </c>
       <c r="BY25" s="1">
         <v>23.350344</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1480.530000</v>
+        <v>1480.53</v>
       </c>
       <c r="CA25" s="1">
-        <v>-895.074000</v>
+        <v>-895.07399999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>84074.423557</v>
+        <v>84074.423557000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.354007</v>
+        <v>23.354006999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1829.390000</v>
+        <v>1829.39</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1389.150000</v>
+        <v>-1389.15</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>83898.137458</v>
+        <v>83898.137457999997</v>
       </c>
       <c r="B26" s="1">
         <v>23.305038</v>
       </c>
       <c r="C26" s="1">
-        <v>909.117000</v>
+        <v>909.11699999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-201.988000</v>
+        <v>-201.988</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>83908.672976</v>
+        <v>83908.672976000002</v>
       </c>
       <c r="G26" s="1">
-        <v>23.307965</v>
+        <v>23.307964999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>927.015000</v>
+        <v>927.01499999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.122000</v>
+        <v>-171.12200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>83919.512050</v>
+        <v>83919.512050000005</v>
       </c>
       <c r="L26" s="1">
         <v>23.310976</v>
       </c>
       <c r="M26" s="1">
-        <v>950.729000</v>
+        <v>950.72900000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.570000</v>
+        <v>-121.57</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>83930.106596</v>
+        <v>83930.106595999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.313918</v>
+        <v>23.313918000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>957.574000</v>
+        <v>957.57399999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.149000</v>
+        <v>-105.149</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>83940.238376</v>
+        <v>83940.238375999994</v>
       </c>
       <c r="V26" s="1">
-        <v>23.316733</v>
+        <v>23.316732999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>964.388000</v>
+        <v>964.38800000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.903600</v>
+        <v>-89.903599999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>83950.530361</v>
+        <v>83950.530360999997</v>
       </c>
       <c r="AA26" s="1">
         <v>23.319592</v>
       </c>
       <c r="AB26" s="1">
-        <v>971.683000</v>
+        <v>971.68299999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.907900</v>
+        <v>-77.907899999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>83961.137307</v>
+        <v>83961.137306999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.322538</v>
+        <v>23.322538000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>976.561000</v>
+        <v>976.56100000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.444400</v>
+        <v>-75.444400000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>83971.742764</v>
+        <v>83971.742763999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>23.325484</v>
+        <v>23.325483999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>983.896000</v>
+        <v>983.89599999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.806000</v>
+        <v>-79.805999999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>83982.193967</v>
+        <v>83982.193966999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.328387</v>
+        <v>23.328386999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.992000</v>
+        <v>991.99199999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.076500</v>
+        <v>-91.076499999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>83993.238386</v>
+        <v>83993.238385999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.331455</v>
+        <v>23.331454999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.810000</v>
+        <v>1001.81</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.411000</v>
+        <v>-108.411</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>84004.170744</v>
+        <v>84004.170744000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.334492</v>
+        <v>23.334492000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.060000</v>
+        <v>1010.06</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>84015.160602</v>
+        <v>84015.160602000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.337545</v>
+        <v>23.337544999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.720000</v>
+        <v>1048.72</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>84026.872133</v>
+        <v>84026.872132999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.340798</v>
+        <v>23.340797999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1115.770000</v>
+        <v>1115.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>84039.214548</v>
+        <v>84039.214548000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.344226</v>
+        <v>23.344225999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.265000</v>
+        <v>-490.26499999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>84050.722725</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.347423</v>
+        <v>23.347422999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1345.820000</v>
+        <v>1345.82</v>
       </c>
       <c r="BV26" s="1">
-        <v>-686.458000</v>
+        <v>-686.45799999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>84061.670422</v>
+        <v>84061.670421999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.350464</v>
+        <v>23.350463999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1480.570000</v>
+        <v>1480.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-895.159000</v>
+        <v>-895.15899999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>84074.956758</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.354155</v>
+        <v>23.354154999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.920000</v>
+        <v>1830.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1388.710000</v>
+        <v>-1388.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>